--- a/data_year/zb/旅游业/旅游业发展情况.xlsx
+++ b/data_year/zb/旅游业/旅游业发展情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,889 +498,509 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8344.3881</v>
+        <v>13376.22</v>
       </c>
       <c r="C2" t="n">
-        <v>3122.9</v>
+        <v>5566.45</v>
       </c>
       <c r="D2" t="n">
-        <v>310.86</v>
+        <v>514.0599999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>1047.26</v>
+        <v>5738.65</v>
       </c>
       <c r="F2" t="n">
-        <v>563.09</v>
+        <v>5150.79</v>
       </c>
       <c r="G2" t="n">
-        <v>3175.54</v>
+        <v>12579.77</v>
       </c>
       <c r="H2" t="n">
-        <v>74400</v>
+        <v>210300</v>
       </c>
       <c r="I2" t="n">
-        <v>16224</v>
+        <v>45814</v>
       </c>
       <c r="J2" t="n">
-        <v>1016.0432</v>
+        <v>2612.69</v>
       </c>
       <c r="K2" t="n">
-        <v>8993</v>
+        <v>22784</v>
       </c>
       <c r="L2" t="n">
-        <v>10481</v>
+        <v>13991</v>
       </c>
       <c r="M2" t="n">
-        <v>7009.93</v>
+        <v>10249.48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8901.290000000001</v>
+        <v>13542.35</v>
       </c>
       <c r="C3" t="n">
-        <v>3316.7</v>
+        <v>5758.07</v>
       </c>
       <c r="D3" t="n">
-        <v>344.2</v>
+        <v>526.3</v>
       </c>
       <c r="E3" t="n">
-        <v>1213.44</v>
+        <v>7025</v>
       </c>
       <c r="F3" t="n">
-        <v>694.67</v>
+        <v>6411.79</v>
       </c>
       <c r="G3" t="n">
-        <v>3522.37</v>
+        <v>19305.39</v>
       </c>
       <c r="H3" t="n">
-        <v>78400</v>
+        <v>264100</v>
       </c>
       <c r="I3" t="n">
-        <v>17792</v>
+        <v>48464</v>
       </c>
       <c r="J3" t="n">
-        <v>1122.6384</v>
+        <v>2711.2</v>
       </c>
       <c r="K3" t="n">
-        <v>10532</v>
+        <v>23690</v>
       </c>
       <c r="L3" t="n">
-        <v>7358</v>
+        <v>13513</v>
       </c>
       <c r="M3" t="n">
-        <v>7434.45</v>
+        <v>10304.85</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9790.83</v>
+        <v>13240.53</v>
       </c>
       <c r="C4" t="n">
-        <v>3680.3</v>
+        <v>5772.49</v>
       </c>
       <c r="D4" t="n">
-        <v>366.06</v>
+        <v>534.02</v>
       </c>
       <c r="E4" t="n">
-        <v>1660.23</v>
+        <v>8318.17</v>
       </c>
       <c r="F4" t="n">
-        <v>1006.14</v>
+        <v>7705.51</v>
       </c>
       <c r="G4" t="n">
-        <v>3878.36</v>
+        <v>22706.2</v>
       </c>
       <c r="H4" t="n">
-        <v>87800</v>
+        <v>295700</v>
       </c>
       <c r="I4" t="n">
-        <v>20385</v>
+        <v>50028</v>
       </c>
       <c r="J4" t="n">
-        <v>1343.9497</v>
+        <v>2719.16</v>
       </c>
       <c r="K4" t="n">
-        <v>11552</v>
+        <v>24944</v>
       </c>
       <c r="L4" t="n">
-        <v>8880</v>
+        <v>12807</v>
       </c>
       <c r="M4" t="n">
-        <v>8080.82</v>
+        <v>9987.35</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9166.209999999999</v>
+        <v>12907.78</v>
       </c>
       <c r="C5" t="n">
-        <v>3297.1</v>
+        <v>5568.59</v>
       </c>
       <c r="D5" t="n">
-        <v>273.19</v>
+        <v>516.25</v>
       </c>
       <c r="E5" t="n">
-        <v>2022.19</v>
+        <v>9818.52</v>
       </c>
       <c r="F5" t="n">
-        <v>1481.09</v>
+        <v>9197.08</v>
       </c>
       <c r="G5" t="n">
-        <v>3442.27</v>
+        <v>26276.1</v>
       </c>
       <c r="H5" t="n">
-        <v>87000</v>
+        <v>326200</v>
       </c>
       <c r="I5" t="n">
-        <v>17406</v>
+        <v>51664</v>
       </c>
       <c r="J5" t="n">
-        <v>1140.2855</v>
+        <v>2629.0294</v>
       </c>
       <c r="K5" t="n">
-        <v>13361</v>
+        <v>26054</v>
       </c>
       <c r="L5" t="n">
-        <v>9751</v>
+        <v>13293</v>
       </c>
       <c r="M5" t="n">
-        <v>7752.73</v>
+        <v>9762.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10903.82</v>
+        <v>12849.83</v>
       </c>
       <c r="C6" t="n">
-        <v>4176.1</v>
+        <v>5562.2</v>
       </c>
       <c r="D6" t="n">
-        <v>368.525</v>
+        <v>536.59</v>
       </c>
       <c r="E6" t="n">
-        <v>2885</v>
+        <v>11659.32</v>
       </c>
       <c r="F6" t="n">
-        <v>2298</v>
+        <v>11002.91</v>
       </c>
       <c r="G6" t="n">
-        <v>4710.71</v>
+        <v>30311.86</v>
       </c>
       <c r="H6" t="n">
-        <v>110200</v>
+        <v>361100</v>
       </c>
       <c r="I6" t="n">
-        <v>25739</v>
+        <v>105380</v>
       </c>
       <c r="J6" t="n">
-        <v>1693.2506</v>
+        <v>2636.08</v>
       </c>
       <c r="K6" t="n">
-        <v>14927</v>
+        <v>26650</v>
       </c>
       <c r="L6" t="n">
-        <v>10888</v>
+        <v>12803</v>
       </c>
       <c r="M6" t="n">
-        <v>8842.046200000001</v>
+        <v>9677.16</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12029.23</v>
+        <v>13382.04</v>
       </c>
       <c r="C7" t="n">
-        <v>4680.9</v>
+        <v>5688.57</v>
       </c>
       <c r="D7" t="n">
-        <v>410.92</v>
+        <v>549.86</v>
       </c>
       <c r="E7" t="n">
-        <v>3102.63</v>
+        <v>12786</v>
       </c>
       <c r="F7" t="n">
-        <v>2514</v>
+        <v>12172</v>
       </c>
       <c r="G7" t="n">
-        <v>5285.86</v>
+        <v>34195.1</v>
       </c>
       <c r="H7" t="n">
-        <v>121200</v>
+        <v>399000</v>
       </c>
       <c r="I7" t="n">
-        <v>29296</v>
+        <v>113650</v>
       </c>
       <c r="J7" t="n">
-        <v>2025.5137</v>
+        <v>2598.54</v>
       </c>
       <c r="K7" t="n">
-        <v>16245</v>
+        <v>27621</v>
       </c>
       <c r="L7" t="n">
-        <v>11828</v>
+        <v>12327</v>
       </c>
       <c r="M7" t="n">
-        <v>9592.790000000001</v>
+        <v>10233.64</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12494.21</v>
+        <v>13844.38</v>
       </c>
       <c r="C8" t="n">
-        <v>4991.3</v>
+        <v>5926.73</v>
       </c>
       <c r="D8" t="n">
-        <v>441.35</v>
+        <v>573</v>
       </c>
       <c r="E8" t="n">
-        <v>3452.36</v>
+        <v>13513</v>
       </c>
       <c r="F8" t="n">
-        <v>2879.91</v>
+        <v>12850</v>
       </c>
       <c r="G8" t="n">
-        <v>6229.7</v>
+        <v>39389.82</v>
       </c>
       <c r="H8" t="n">
-        <v>139400</v>
+        <v>443500</v>
       </c>
       <c r="I8" t="n">
-        <v>33949</v>
+        <v>120000</v>
       </c>
       <c r="J8" t="n">
-        <v>2221.03</v>
+        <v>2815.12</v>
       </c>
       <c r="K8" t="n">
-        <v>17957</v>
+        <v>27939</v>
       </c>
       <c r="L8" t="n">
-        <v>12751</v>
+        <v>11685</v>
       </c>
       <c r="M8" t="n">
-        <v>9831.84</v>
+        <v>10456.26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13187.33</v>
+        <v>13948.24</v>
       </c>
       <c r="C9" t="n">
-        <v>5471.98</v>
+        <v>6073.84</v>
       </c>
       <c r="D9" t="n">
-        <v>462.79</v>
+        <v>587.13</v>
       </c>
       <c r="E9" t="n">
-        <v>4095.4</v>
+        <v>14272.74</v>
       </c>
       <c r="F9" t="n">
-        <v>3492.4</v>
+        <v>13581.56</v>
       </c>
       <c r="G9" t="n">
-        <v>7770.6</v>
+        <v>45660.77</v>
       </c>
       <c r="H9" t="n">
-        <v>161000</v>
+        <v>500100</v>
       </c>
       <c r="I9" t="n">
-        <v>41919</v>
+        <v>123417</v>
       </c>
       <c r="J9" t="n">
-        <v>2610.9668</v>
+        <v>2916.53</v>
       </c>
       <c r="K9" t="n">
-        <v>18943</v>
+        <v>29717</v>
       </c>
       <c r="L9" t="n">
-        <v>13583</v>
+        <v>9566</v>
       </c>
       <c r="M9" t="n">
-        <v>10113.57</v>
+        <v>10444.59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13002.74</v>
+        <v>14119.8277</v>
       </c>
       <c r="C10" t="n">
-        <v>5304.92401959</v>
+        <v>6289.57</v>
       </c>
       <c r="D10" t="n">
-        <v>438.56</v>
+        <v>613.6081</v>
       </c>
       <c r="E10" t="n">
-        <v>4584.44</v>
+        <v>16199.34</v>
       </c>
       <c r="F10" t="n">
-        <v>4013.12</v>
+        <v>15501.69</v>
       </c>
       <c r="G10" t="n">
-        <v>8749.2959184192</v>
+        <v>51278.29</v>
       </c>
       <c r="H10" t="n">
-        <v>171200</v>
+        <v>553900</v>
       </c>
       <c r="I10" t="n">
-        <v>40843</v>
+        <v>127103.01456102</v>
       </c>
       <c r="J10" t="n">
-        <v>2432.53</v>
+        <v>3054.29</v>
       </c>
       <c r="K10" t="n">
-        <v>20110</v>
+        <v>37309</v>
       </c>
       <c r="L10" t="n">
-        <v>14099</v>
+        <v>8962</v>
       </c>
       <c r="M10" t="n">
-        <v>10131.65</v>
+        <v>10451.9258</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12647.59</v>
+        <v>14530.78</v>
       </c>
       <c r="C11" t="n">
-        <v>5087.52</v>
+        <v>6572.52</v>
       </c>
       <c r="D11" t="n">
-        <v>448.4</v>
+        <v>613.42</v>
       </c>
       <c r="E11" t="n">
-        <v>4765.62</v>
+        <v>16920.54</v>
       </c>
       <c r="F11" t="n">
-        <v>4220.97</v>
+        <v>16211.43</v>
       </c>
       <c r="G11" t="n">
-        <v>10183.7</v>
+        <v>57250.92</v>
       </c>
       <c r="H11" t="n">
-        <v>190200</v>
+        <v>600600</v>
       </c>
       <c r="I11" t="n">
-        <v>39675</v>
+        <v>131254</v>
       </c>
       <c r="J11" t="n">
-        <v>2193.75</v>
+        <v>3188.34</v>
       </c>
       <c r="K11" t="n">
-        <v>20399</v>
+        <v>38943</v>
       </c>
       <c r="L11" t="n">
-        <v>14237</v>
+        <v>10130</v>
       </c>
       <c r="M11" t="n">
-        <v>10005.44</v>
+        <v>10729.01</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>13376.22</v>
-      </c>
-      <c r="C12" t="n">
-        <v>5566.45</v>
-      </c>
-      <c r="D12" t="n">
-        <v>514.0599999999999</v>
-      </c>
-      <c r="E12" t="n">
-        <v>5738.65</v>
-      </c>
-      <c r="F12" t="n">
-        <v>5150.79</v>
-      </c>
+          <t>2020年</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>12579.77</v>
+        <v>22286.3</v>
       </c>
       <c r="H12" t="n">
-        <v>210300</v>
-      </c>
-      <c r="I12" t="n">
-        <v>45814</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2612.69</v>
-      </c>
+        <v>287900</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>22784</v>
+        <v>31074</v>
       </c>
       <c r="L12" t="n">
-        <v>13991</v>
-      </c>
-      <c r="M12" t="n">
-        <v>10249.48</v>
-      </c>
+        <v>8423</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>13542.35</v>
-      </c>
-      <c r="C13" t="n">
-        <v>5758.07</v>
-      </c>
-      <c r="D13" t="n">
-        <v>526.3</v>
-      </c>
-      <c r="E13" t="n">
-        <v>7025</v>
-      </c>
-      <c r="F13" t="n">
-        <v>6411.79</v>
-      </c>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>19305.39</v>
+        <v>29190.7</v>
       </c>
       <c r="H13" t="n">
-        <v>264100</v>
-      </c>
-      <c r="I13" t="n">
-        <v>48464</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2711.2</v>
-      </c>
+        <v>324600</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>23690</v>
+        <v>42432</v>
       </c>
       <c r="L13" t="n">
-        <v>13513</v>
-      </c>
-      <c r="M13" t="n">
-        <v>10304.85</v>
-      </c>
+        <v>8771</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>13240.53</v>
-      </c>
-      <c r="C14" t="n">
-        <v>5772.49</v>
-      </c>
-      <c r="D14" t="n">
-        <v>534.02</v>
-      </c>
-      <c r="E14" t="n">
-        <v>8318.17</v>
-      </c>
-      <c r="F14" t="n">
-        <v>7705.51</v>
-      </c>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
       <c r="G14" t="n">
-        <v>22706.2</v>
+        <v>20444</v>
       </c>
       <c r="H14" t="n">
-        <v>295700</v>
-      </c>
-      <c r="I14" t="n">
-        <v>50028</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2719.16</v>
-      </c>
-      <c r="K14" t="n">
-        <v>24944</v>
-      </c>
-      <c r="L14" t="n">
-        <v>12807</v>
-      </c>
-      <c r="M14" t="n">
-        <v>9987.35</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>12907.78</v>
-      </c>
-      <c r="C15" t="n">
-        <v>5568.59</v>
-      </c>
-      <c r="D15" t="n">
-        <v>516.25</v>
-      </c>
-      <c r="E15" t="n">
-        <v>9818.52</v>
-      </c>
-      <c r="F15" t="n">
-        <v>9197.08</v>
-      </c>
-      <c r="G15" t="n">
-        <v>26276.1</v>
-      </c>
-      <c r="H15" t="n">
-        <v>326200</v>
-      </c>
-      <c r="I15" t="n">
-        <v>51664</v>
-      </c>
-      <c r="J15" t="n">
-        <v>2629.0294</v>
-      </c>
-      <c r="K15" t="n">
-        <v>26054</v>
-      </c>
-      <c r="L15" t="n">
-        <v>13293</v>
-      </c>
-      <c r="M15" t="n">
-        <v>9762.5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>12849.83</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5562.2</v>
-      </c>
-      <c r="D16" t="n">
-        <v>536.59</v>
-      </c>
-      <c r="E16" t="n">
-        <v>11659.32</v>
-      </c>
-      <c r="F16" t="n">
-        <v>11002.91</v>
-      </c>
-      <c r="G16" t="n">
-        <v>30311.86</v>
-      </c>
-      <c r="H16" t="n">
-        <v>361100</v>
-      </c>
-      <c r="I16" t="n">
-        <v>105380</v>
-      </c>
-      <c r="J16" t="n">
-        <v>2636.08</v>
-      </c>
-      <c r="K16" t="n">
-        <v>26650</v>
-      </c>
-      <c r="L16" t="n">
-        <v>12803</v>
-      </c>
-      <c r="M16" t="n">
-        <v>9677.16</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>13382.04</v>
-      </c>
-      <c r="C17" t="n">
-        <v>5688.57</v>
-      </c>
-      <c r="D17" t="n">
-        <v>549.86</v>
-      </c>
-      <c r="E17" t="n">
-        <v>12786</v>
-      </c>
-      <c r="F17" t="n">
-        <v>12172</v>
-      </c>
-      <c r="G17" t="n">
-        <v>34195.1</v>
-      </c>
-      <c r="H17" t="n">
-        <v>399000</v>
-      </c>
-      <c r="I17" t="n">
-        <v>113650</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2598.54</v>
-      </c>
-      <c r="K17" t="n">
-        <v>27621</v>
-      </c>
-      <c r="L17" t="n">
-        <v>12327</v>
-      </c>
-      <c r="M17" t="n">
-        <v>10233.64</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>13844.38</v>
-      </c>
-      <c r="C18" t="n">
-        <v>5926.73</v>
-      </c>
-      <c r="D18" t="n">
-        <v>573</v>
-      </c>
-      <c r="E18" t="n">
-        <v>13513</v>
-      </c>
-      <c r="F18" t="n">
-        <v>12850</v>
-      </c>
-      <c r="G18" t="n">
-        <v>39389.82</v>
-      </c>
-      <c r="H18" t="n">
-        <v>443500</v>
-      </c>
-      <c r="I18" t="n">
-        <v>120000</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2815.12</v>
-      </c>
-      <c r="K18" t="n">
-        <v>27939</v>
-      </c>
-      <c r="L18" t="n">
-        <v>11685</v>
-      </c>
-      <c r="M18" t="n">
-        <v>10456.26</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>13948.24</v>
-      </c>
-      <c r="C19" t="n">
-        <v>6073.84</v>
-      </c>
-      <c r="D19" t="n">
-        <v>587.13</v>
-      </c>
-      <c r="E19" t="n">
-        <v>14272.74</v>
-      </c>
-      <c r="F19" t="n">
-        <v>13581.56</v>
-      </c>
-      <c r="G19" t="n">
-        <v>45660.77</v>
-      </c>
-      <c r="H19" t="n">
-        <v>500100</v>
-      </c>
-      <c r="I19" t="n">
-        <v>123417</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2916.53</v>
-      </c>
-      <c r="K19" t="n">
-        <v>29717</v>
-      </c>
-      <c r="L19" t="n">
-        <v>9566</v>
-      </c>
-      <c r="M19" t="n">
-        <v>10444.59</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>14119.8277</v>
-      </c>
-      <c r="C20" t="n">
-        <v>6289.57</v>
-      </c>
-      <c r="D20" t="n">
-        <v>613.6081</v>
-      </c>
-      <c r="E20" t="n">
-        <v>16199.34</v>
-      </c>
-      <c r="F20" t="n">
-        <v>15501.69</v>
-      </c>
-      <c r="G20" t="n">
-        <v>51278.29</v>
-      </c>
-      <c r="H20" t="n">
-        <v>553900</v>
-      </c>
-      <c r="I20" t="n">
-        <v>127103.01456102</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3054.29</v>
-      </c>
-      <c r="K20" t="n">
-        <v>37309</v>
-      </c>
-      <c r="L20" t="n">
-        <v>8962</v>
-      </c>
-      <c r="M20" t="n">
-        <v>10451.9258</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>14530.78</v>
-      </c>
-      <c r="C21" t="n">
-        <v>6572.52</v>
-      </c>
-      <c r="D21" t="n">
-        <v>613.42</v>
-      </c>
-      <c r="E21" t="n">
-        <v>16920.54</v>
-      </c>
-      <c r="F21" t="n">
-        <v>16211.43</v>
-      </c>
-      <c r="G21" t="n">
-        <v>57250.92</v>
-      </c>
-      <c r="H21" t="n">
-        <v>600600</v>
-      </c>
-      <c r="I21" t="n">
-        <v>131254</v>
-      </c>
-      <c r="J21" t="n">
-        <v>3188.34</v>
-      </c>
-      <c r="K21" t="n">
-        <v>38943</v>
-      </c>
-      <c r="L21" t="n">
-        <v>10130</v>
-      </c>
-      <c r="M21" t="n">
-        <v>10729.01</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="n">
-        <v>22286.3</v>
-      </c>
-      <c r="H22" t="n">
-        <v>287900</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>31074</v>
-      </c>
-      <c r="L22" t="n">
-        <v>8423</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+        <v>253000</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
